--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy(Data-Structures)_V1.0.3.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy(Data-Structures)_V1.0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="350">
   <si>
     <t>005eb9ed-1347-4ca3-bb29-9bc0db64e1ab</t>
   </si>
@@ -840,18 +840,9 @@
     <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required quality assurance standards, including accessibility for disabled persons?</t>
   </si>
   <si>
-    <t>0e88f63c-5642-4a17-833b-ae5800e1750a</t>
-  </si>
-  <si>
-    <t>76c7cf31-be3a-4a7e-8c35-a65ae60cd674</t>
-  </si>
-  <si>
     <t>GROUP_FULFILLED.ON_FALSE</t>
   </si>
   <si>
-    <t>8c5d1e13-54f7-4895-a65c-b8e09253130c</t>
-  </si>
-  <si>
     <t>If not, please explain why and specify which other means of proof concerning the quality assurance scheme can be provided:</t>
   </si>
   <si>
@@ -862,15 +853,6 @@
   </si>
   <si>
     <t>Will the economic operator be able to produce certificates drawn up by independent bodies attesting that the economic operator complies with the required environmental management systems or standards?</t>
-  </si>
-  <si>
-    <t>82a59ce2-9c59-4075-af08-843ad89a45ec</t>
-  </si>
-  <si>
-    <t>d664788a-df88-49a0-9dfa-2dd217355724</t>
-  </si>
-  <si>
-    <t>b0aace10-fd73-46d1-ae78-289ee5cd42ca</t>
   </si>
   <si>
     <t>If not, please explain why and specify which other means of proof concerning the environmental management systems or standards can be provided:</t>
@@ -2171,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2233,7 +2215,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2261,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>7</v>
@@ -2328,14 +2310,14 @@
         <v>3</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O5" s="27"/>
       <c r="P5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2721,10 +2703,10 @@
         <v>3</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2819,14 +2801,14 @@
         <v>42</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3212,10 +3194,10 @@
         <v>42</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3243,7 +3225,7 @@
         <v>49</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P38" s="17" t="s">
         <v>7</v>
@@ -3310,14 +3292,14 @@
         <v>45</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O41" s="27"/>
       <c r="P41" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -3703,10 +3685,10 @@
         <v>45</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3801,14 +3783,14 @@
         <v>46</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O59" s="27"/>
       <c r="P59" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4194,10 +4176,10 @@
         <v>46</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4222,10 +4204,10 @@
         <v>47</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P74" s="17" t="s">
         <v>7</v>
@@ -4292,14 +4274,14 @@
         <v>47</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4685,10 +4667,10 @@
         <v>47</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -4713,10 +4695,10 @@
         <v>48</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P92" s="17" t="s">
         <v>7</v>
@@ -4783,14 +4765,14 @@
         <v>48</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O95" s="27"/>
       <c r="P95" s="27" t="s">
         <v>40</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -5176,10 +5158,10 @@
         <v>48</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5371,7 +5353,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5594,10 +5576,10 @@
         <v>139</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -5821,10 +5803,10 @@
         <v>145</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="23"/>
     </row>
@@ -5919,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6195,10 +6177,10 @@
         <v>148</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -6475,10 +6457,10 @@
         <v>154</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="23"/>
     </row>
@@ -6574,7 +6556,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6622,12 +6604,12 @@
         <v>156</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6651,7 +6633,7 @@
         <v>198</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="6"/>
@@ -6674,10 +6656,10 @@
         <v>156</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="6"/>
@@ -6854,10 +6836,10 @@
         <v>156</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -6946,7 +6928,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7016,10 +6998,10 @@
         <v>165</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -7041,10 +7023,10 @@
         <v>165</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="23"/>
     </row>
@@ -7194,10 +7176,10 @@
         <v>165</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -7293,7 +7275,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7363,10 +7345,10 @@
         <v>170</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -7388,10 +7370,10 @@
         <v>170</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="23"/>
     </row>
@@ -7541,10 +7523,10 @@
         <v>170</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -7637,7 +7619,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7685,12 +7667,12 @@
         <v>167</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7714,7 +7696,7 @@
         <v>198</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="6"/>
@@ -7737,10 +7719,10 @@
         <v>167</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="6"/>
@@ -7917,10 +7899,10 @@
         <v>167</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -8008,7 +7990,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8176,7 +8158,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8204,7 +8186,7 @@
         <v>179</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -8229,7 +8211,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8430,10 +8412,10 @@
         <v>180</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -8525,7 +8507,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8739,10 +8721,10 @@
         <v>186</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
@@ -8834,7 +8816,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9048,10 +9030,10 @@
         <v>190</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
@@ -9144,7 +9126,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9845,10 +9827,10 @@
         <v>52</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="23"/>
     </row>
@@ -10550,10 +10532,10 @@
         <v>77</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q51" s="23"/>
     </row>
@@ -10644,7 +10626,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -10697,7 +10679,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -10773,7 +10755,7 @@
         <v>198</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="6"/>
@@ -10796,10 +10778,10 @@
         <v>194</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="6"/>
@@ -10976,10 +10958,10 @@
         <v>194</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="23"/>
     </row>
@@ -11033,7 +11015,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11109,7 +11091,7 @@
         <v>198</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="6"/>
@@ -11132,10 +11114,10 @@
         <v>201</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="6"/>
@@ -11312,10 +11294,10 @@
         <v>201</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="23"/>
     </row>
@@ -11369,7 +11351,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11445,7 +11427,7 @@
         <v>198</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="6"/>
@@ -11468,10 +11450,10 @@
         <v>204</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="6"/>
@@ -11648,10 +11630,10 @@
         <v>204</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="23"/>
     </row>
@@ -11745,7 +11727,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11968,10 +11950,10 @@
         <v>207</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -12195,10 +12177,10 @@
         <v>210</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="23"/>
     </row>
@@ -12422,10 +12404,10 @@
         <v>213</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="23"/>
     </row>
@@ -12649,10 +12631,10 @@
         <v>216</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="23"/>
     </row>
@@ -12876,10 +12858,10 @@
         <v>219</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="23"/>
     </row>
@@ -13103,10 +13085,10 @@
         <v>228</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q55" s="23"/>
     </row>
@@ -13330,10 +13312,10 @@
         <v>231</v>
       </c>
       <c r="N64" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q64" s="23"/>
     </row>
@@ -13557,10 +13539,10 @@
         <v>243</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="23"/>
     </row>
@@ -13649,7 +13631,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -13814,7 +13796,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -13867,7 +13849,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14068,10 +14050,10 @@
         <v>234</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -14125,7 +14107,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14326,10 +14308,10 @@
         <v>241</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="23"/>
     </row>
@@ -14418,7 +14400,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14488,7 +14470,7 @@
         <v>246</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>178</v>
@@ -14523,7 +14505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14581,7 +14565,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -14804,10 +14788,10 @@
         <v>250</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -15031,10 +15015,10 @@
         <v>254</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="23"/>
     </row>
@@ -15066,12 +15050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="3.7109375" style="18" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" style="18"/>
+    <col min="12" max="12" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="18"/>
     <col min="14" max="14" width="36.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="18"/>
   </cols>
@@ -15123,7 +15108,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -15171,7 +15156,7 @@
         <v>257</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="23"/>
     </row>
@@ -15218,10 +15203,10 @@
         <v>257</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="23"/>
     </row>
@@ -15246,10 +15231,10 @@
         <v>257</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="23"/>
     </row>
@@ -15399,10 +15384,10 @@
         <v>257</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -15451,7 +15436,7 @@
         <v>261</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="23"/>
     </row>
@@ -15488,20 +15473,20 @@
         <v>1</v>
       </c>
       <c r="D16" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>C55/G1/G1.2</v>
+        <v>C55/G1/G1.1</v>
       </c>
       <c r="M16" s="21" t="s">
         <v>261</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="23"/>
     </row>
@@ -15513,23 +15498,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="L17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>C55/G1/G1.2/R1</v>
+        <v>C55/G1/G1.1/R1</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>261</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="23"/>
     </row>
@@ -15679,10 +15664,10 @@
         <v>261</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="23"/>
     </row>
@@ -15705,13 +15690,13 @@
         <v>C56</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="24"/>
@@ -15728,10 +15713,10 @@
         <v>C56/G1</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="23"/>
     </row>
@@ -15750,7 +15735,7 @@
         <v>C56/G1/R1</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N26" s="21" t="s">
         <v>143</v>
@@ -15768,20 +15753,20 @@
         <v>1</v>
       </c>
       <c r="D27" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>C56/G1/G1.2</v>
+        <v>C56/G1/G1.1</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q27" s="23"/>
     </row>
@@ -15793,23 +15778,23 @@
         <v>1</v>
       </c>
       <c r="D28" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="21">
         <v>1</v>
       </c>
       <c r="L28" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>C56/G1/G1.2/R1</v>
+        <v>C56/G1/G1.1/R1</v>
       </c>
       <c r="M28" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O28" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="Q28" s="23"/>
     </row>
@@ -15825,7 +15810,7 @@
         <v>C56/G2</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N29" s="21" t="s">
         <v>32</v>
@@ -15847,7 +15832,7 @@
         <v>C56/G2/R1</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N30" s="21" t="s">
         <v>33</v>
@@ -15872,7 +15857,7 @@
         <v>C56/G2/G2.1</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N31" s="21" t="s">
         <v>4</v>
@@ -15900,7 +15885,7 @@
         <v>C56/G2/G2.1/R1</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N32" s="21" t="s">
         <v>35</v>
@@ -15928,7 +15913,7 @@
         <v>C56/G2/G2.1/R2</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N33" s="21" t="s">
         <v>37</v>
@@ -15956,13 +15941,13 @@
         <v>C56/G2/G2.1/R3</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q34" s="23"/>
     </row>
@@ -16055,7 +16040,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -16077,13 +16062,13 @@
         <v>C57</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -16100,10 +16085,10 @@
         <v>C57/G1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="5"/>
@@ -16123,13 +16108,13 @@
         <v>C57/G1/R1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -16148,10 +16133,10 @@
         <v>C57/G1/G1.1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="1" t="s">
@@ -16177,13 +16162,13 @@
         <v>C57/G1/G1.1/R1</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="O6" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
@@ -16205,13 +16190,13 @@
         <v>C57/G1/G1.1/R2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
@@ -16304,7 +16289,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -16326,13 +16311,13 @@
         <v>C58</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -16349,10 +16334,10 @@
         <v>C58/G1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="23"/>
     </row>
@@ -16371,13 +16356,13 @@
         <v>C58/G1/R1</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -16396,10 +16381,10 @@
         <v>C58/G1/G1.1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>40</v>
@@ -16424,13 +16409,13 @@
         <v>C58/G1/G1.1/R1</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>291</v>
       </c>
       <c r="Q6" s="23"/>
     </row>
@@ -16452,13 +16437,13 @@
         <v>C58/G1/G1.1/R2</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="23"/>
     </row>
@@ -16480,13 +16465,13 @@
         <v>C58/G1/G1.1/R3</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="23"/>
     </row>
@@ -16508,10 +16493,10 @@
         <v>C58/G1/G1.1/G1.1.1</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="23"/>
     </row>
@@ -16536,13 +16521,13 @@
         <v>C58/G1/G1.1/G1.1.1/R1</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -16561,13 +16546,13 @@
         <v>C58/G1/G1.2</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="23"/>
     </row>
@@ -16589,13 +16574,13 @@
         <v>C58/G1/G1.2/R1</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -16617,13 +16602,13 @@
         <v>C58/G1/G1.2/R2</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="23"/>
     </row>
@@ -16715,7 +16700,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -16737,13 +16722,13 @@
         <v>C59</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -16760,10 +16745,10 @@
         <v>C59/G1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>7</v>
@@ -16785,13 +16770,13 @@
         <v>C59/G1/R1</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -16810,10 +16795,10 @@
         <v>C59/G1/G1.1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>40</v>
@@ -16838,13 +16823,13 @@
         <v>C59/G1/G1.1/R1</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="Q6" s="23"/>
     </row>
@@ -16866,13 +16851,13 @@
         <v>C59/G1/G1.1/R2</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="23"/>
     </row>
@@ -16894,13 +16879,13 @@
         <v>C59/G1/G1.1/R3</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="23"/>
     </row>
@@ -16987,7 +16972,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -17823,7 +17808,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -17845,13 +17830,13 @@
         <v>C60</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -17868,10 +17853,10 @@
         <v>C60/G1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q3" s="23"/>
     </row>
@@ -17890,13 +17875,13 @@
         <v>C60/G1/R1</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -17986,7 +17971,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -18008,13 +17993,13 @@
         <v>C61</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -18031,10 +18016,10 @@
         <v>C61/G1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="23"/>
     </row>
@@ -18053,13 +18038,13 @@
         <v>C61/G1/R1</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -18078,10 +18063,10 @@
         <v>C61/G1/G1.1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>40</v>
@@ -18106,13 +18091,13 @@
         <v>C61/G1/G1.1/R1</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="Q6" s="23"/>
     </row>
@@ -18200,7 +18185,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18504,10 +18489,10 @@
         <v>93</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="23"/>
     </row>
@@ -18812,10 +18797,10 @@
         <v>100</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="23"/>
     </row>
@@ -19120,10 +19105,10 @@
         <v>104</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="23"/>
     </row>
@@ -19428,10 +19413,10 @@
         <v>106</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="23"/>
     </row>
@@ -19736,10 +19721,10 @@
         <v>109</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q61" s="23"/>
     </row>
@@ -19768,7 +19753,7 @@
         <v>113</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P62" s="17"/>
       <c r="Q62" s="24"/>
@@ -20044,10 +20029,10 @@
         <v>112</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="23"/>
     </row>
@@ -20141,7 +20126,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -20169,7 +20154,7 @@
         <v>115</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="25"/>
@@ -20723,7 +20708,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21072,7 +21057,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21412,7 +21397,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -21582,7 +21567,7 @@
         <v>41</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -21979,10 +21964,10 @@
         <v>136</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="23"/>
     </row>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy(Data-Structures)_V1.0.3.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy(Data-Structures)_V1.0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD-Steps\ESPD\dist\cl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD\ESPD-EDM\docs\src\main\asciidoc\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -2153,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15050,7 +15050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
